--- a/ConfigFile/Language/Language.xlsx
+++ b/ConfigFile/Language/Language.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C83AB7-2CEE-482A-918E-AE53E1209F3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1151E829-FD7A-4377-90EC-C1D171897892}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="151">
   <si>
     <t>Key</t>
   </si>
@@ -449,6 +449,85 @@
   </si>
   <si>
     <t>蜂鸣器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>ReName</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>SaveAs</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>Reload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -777,17 +856,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -795,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -806,10 +885,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -817,10 +896,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -828,10 +907,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -839,10 +918,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -850,10 +929,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -861,10 +940,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -872,10 +951,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -883,10 +962,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -894,10 +973,10 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -905,10 +984,10 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -916,10 +995,10 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -927,10 +1006,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -938,10 +1017,10 @@
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -949,10 +1028,10 @@
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -960,10 +1039,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -971,10 +1050,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -982,10 +1061,10 @@
         <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -993,10 +1072,10 @@
         <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1004,10 +1083,10 @@
         <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1015,10 +1094,10 @@
         <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1026,10 +1105,10 @@
         <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1037,10 +1116,10 @@
         <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1048,10 +1127,10 @@
         <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1059,10 +1138,10 @@
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1070,10 +1149,10 @@
         <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1081,10 +1160,10 @@
         <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1092,10 +1171,10 @@
         <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1103,10 +1182,10 @@
         <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1114,10 +1193,10 @@
         <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1125,10 +1204,10 @@
         <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1136,10 +1215,10 @@
         <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1147,10 +1226,10 @@
         <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1158,10 +1237,10 @@
         <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1169,10 +1248,10 @@
         <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1180,10 +1259,10 @@
         <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1191,10 +1270,10 @@
         <v>72</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1202,10 +1281,10 @@
         <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1213,10 +1292,10 @@
         <v>76</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1224,10 +1303,10 @@
         <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1235,10 +1314,10 @@
         <v>85</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1246,10 +1325,10 @@
         <v>86</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1257,21 +1336,21 @@
         <v>87</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C44" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1279,10 +1358,10 @@
         <v>91</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1290,10 +1369,10 @@
         <v>95</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1301,10 +1380,10 @@
         <v>97</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1312,10 +1391,10 @@
         <v>99</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1323,10 +1402,10 @@
         <v>101</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1334,10 +1413,10 @@
         <v>105</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1345,10 +1424,10 @@
         <v>107</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1356,10 +1435,10 @@
         <v>109</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1367,21 +1446,21 @@
         <v>111</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C54" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1389,10 +1468,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1400,10 +1479,10 @@
         <v>120</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1411,10 +1490,10 @@
         <v>123</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1422,10 +1501,131 @@
         <v>127</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>127</v>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
